--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="70">
   <si>
     <t>Doi</t>
   </si>
@@ -253,6 +253,36 @@
   </si>
   <si>
     <t>[ Damien%Basille%null%1,   Nathalie%Plouvier%null%1,   Charlotte%Trouve%null%1,   Pierre%Duhaut%null%1,   Claire%Andrejak%null%1,   Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,   Joanna L%Sharman%NULL%2,   Joanna L%Sharman%NULL%0,   Elena%Faccenda%NULL%1,   Chris%Southan%NULL%1,   Adam J%Pawson%NULL%1,   Sam%Ireland%NULL%1,   Alasdair J G%Gray%NULL%1,   Liam%Bruce%NULL%1,   Stephen P H%Alexander%NULL%1,   Stephen%Anderton%NULL%1,   Clare%Bryant%NULL%1,   Anthony P%Davenport%NULL%1,   Christian%Doerig%NULL%1,   Doriano%Fabbro%NULL%1,   Francesca%Levi-Schaffer%NULL%1,   Michael%Spedding%NULL%1,   Jamie A%Davies%jamie.davies@ed.ac.uk%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%2,    Sotirios G.%Zarogiannis%null%1,    Konstantinos I.%Gourgoulianis%null%1,  Ourania S.%Kotsiou%null%0,  Sotirios G.%Zarogiannis%null%1,  Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%2,    Benjamin%Sztrymf%null%1,    Fabrice%Bertrand%null%1,    Typhaine%Billard-Pomares%null%1,    Guilene%Barnaud%null%1,    Catherine%Branger%null%1,    Didier%Dreyfuss%null%1,    Jean-Damien%Ricard%null%1,  Jonathan%Messika%null%0,  Benjamin%Sztrymf%null%1,  Fabrice%Bertrand%null%1,  Typhaine%Billard-Pomares%null%1,  Guilene%Barnaud%null%1,  Catherine%Branger%null%1,  Didier%Dreyfuss%null%1,  Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,   Ana%Moragas%amoragasm@meditex.es%1,   Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,   Rosa%Morros%rmorros@idiapjgol.org%1,   Helena%Pera%hpera@idiapjgol.org%1,   Josep M%Cots%23465jcy@comb.cat%1,   Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,   Marc%Miravitlles%marcm@separ.es%1,   Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%2,    M.%Chalumeau%null%1,    J.%Messika%null%1,    D.%Basille%null%1,    B.%Philippe%null%1,    J.-D.%Ricard%null%1,    C.%Andrejak%null%1,    V.%Jounieaux%null%1,    O.%Sanchez%null%1,    M.%Fartoukh%null%1,  G.%Voiriot%null%0,  M.%Chalumeau%null%1,  J.%Messika%null%1,  D.%Basille%null%1,  B.%Philippe%null%1,  J.-D.%Ricard%null%1,  C.%Andrejak%null%1,  V.%Jounieaux%null%1,  O.%Sanchez%null%1,  M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%2,    Nathalie%Plouvier%null%1,    Charlotte%Trouve%null%1,    Pierre%Duhaut%null%1,    Claire%Andrejak%null%1,    Vincent%Jounieaux%null%1,  Damien%Basille%null%0,  Nathalie%Plouvier%null%1,  Charlotte%Trouve%null%1,  Pierre%Duhaut%null%1,  Claire%Andrejak%null%1,  Vincent%Jounieaux%null%1]</t>
   </si>
 </sst>
 </file>
@@ -562,6 +592,9 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -577,7 +610,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -587,6 +620,9 @@
       </c>
       <c r="H2" t="s">
         <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +639,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -613,6 +649,9 @@
       </c>
       <c r="H3" t="s">
         <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -639,6 +678,9 @@
       </c>
       <c r="H4" t="s">
         <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -655,7 +697,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -665,6 +707,9 @@
       </c>
       <c r="H5" t="s">
         <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -692,6 +737,9 @@
       <c r="H6" t="s">
         <v>43</v>
       </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -707,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -717,6 +765,9 @@
       </c>
       <c r="H7" t="s">
         <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -733,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -743,6 +794,9 @@
       </c>
       <c r="H8" t="s">
         <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -769,6 +823,9 @@
       </c>
       <c r="H9" t="s">
         <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159755EA-6E15-4A18-A0F8-4859D05D2F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="82">
   <si>
     <t>Doi</t>
   </si>
@@ -95,9 +102,6 @@
 </t>
   </si>
   <si>
-    <t>[Simon D%Harding%NULL%1, Joanna L%Sharman%NULL%2, Joanna L%Sharman%NULL%0, Elena%Faccenda%NULL%1, Chris%Southan%NULL%1, Adam J%Pawson%NULL%1, Sam%Ireland%NULL%1, Alasdair J G%Gray%NULL%1, Liam%Bruce%NULL%1, Stephen P H%Alexander%NULL%1, Stephen%Anderton%NULL%1, Clare%Bryant%NULL%1, Anthony P%Davenport%NULL%1, Christian%Doerig%NULL%1, Doriano%Fabbro%NULL%1, Francesca%Levi-Schaffer%NULL%1, Michael%Spedding%NULL%1, Jamie A%Davies%jamie.davies@ed.ac.uk%1, NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC5753190</t>
   </si>
   <si>
@@ -122,9 +126,6 @@
                </t>
   </si>
   <si>
-    <t>[ Ourania S.%Kotsiou%null%1,  Sotirios G.%Zarogiannis%null%1,  Konstantinos I.%Gourgoulianis%null%1]</t>
-  </si>
-  <si>
     <t>S0954-6111(16)30326-2</t>
   </si>
   <si>
@@ -147,9 +148,6 @@
                   Conclusions
                   We report as severe pneumococcal pneumonia in young and healthy patients exposed to NSAIDs as in older, more comorbid, and nonexposed ones. Nonsteroidal antiinflammatory drug use may mask initial symptoms and delay antimicrobial therapy, thus predisposing to worse outcomes.
                </t>
-  </si>
-  <si>
-    <t>[ Jonathan%Messika%null%1,  Benjamin%Sztrymf%null%1,  Fabrice%Bertrand%null%1,  Typhaine%Billard-Pomares%null%1,  Guilene%Barnaud%null%1,  Catherine%Branger%null%1,  Didier%Dreyfuss%null%1,  Jean-Damien%Ricard%null%1]</t>
   </si>
   <si>
     <t>S0883-9441(14)00222-6</t>
@@ -176,9 +174,6 @@
 Trial registration
             ISRCTN07852892
 </t>
-  </si>
-  <si>
-    <t>[Carl%Llor%carles.llor@urv.cat%1, Ana%Moragas%amoragasm@meditex.es%1, Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1, Rosa%Morros%rmorros@idiapjgol.org%1, Helena%Pera%hpera@idiapjgol.org%1, Josep M%Cots%23465jcy@comb.cat%1, Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1, Marc%Miravitlles%marcm@separ.es%1, Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
   </si>
   <si>
     <t>PMC3141809</t>
@@ -213,9 +208,6 @@
                </t>
   </si>
   <si>
-    <t>[ G.%Voiriot%null%1,  M.%Chalumeau%null%1,  J.%Messika%null%1,  D.%Basille%null%1,  B.%Philippe%null%1,  J.-D.%Ricard%null%1,  C.%Andrejak%null%1,  V.%Jounieaux%null%1,  O.%Sanchez%null%1,  M.%Fartoukh%null%1]</t>
-  </si>
-  <si>
     <t>S0761-8425(18)30072-X</t>
   </si>
   <si>
@@ -228,88 +220,141 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>[ Damien%Basille%null%1,  Nathalie%Plouvier%null%1,  Charlotte%Trouve%null%1,  Pierre%Duhaut%null%1,  Claire%Andrejak%null%1,  Vincent%Jounieaux%null%1]</t>
-  </si>
-  <si>
     <t>Springer</t>
   </si>
   <si>
     <t>2017-04-01</t>
   </si>
   <si>
-    <t>[Simon D%Harding%NULL%1,  Joanna L%Sharman%NULL%2,  Joanna L%Sharman%NULL%0,  Elena%Faccenda%NULL%1,  Chris%Southan%NULL%1,  Adam J%Pawson%NULL%1,  Sam%Ireland%NULL%1,  Alasdair J G%Gray%NULL%1,  Liam%Bruce%NULL%1,  Stephen P H%Alexander%NULL%1,  Stephen%Anderton%NULL%1,  Clare%Bryant%NULL%1,  Anthony P%Davenport%NULL%1,  Christian%Doerig%NULL%1,  Doriano%Fabbro%NULL%1,  Francesca%Levi-Schaffer%NULL%1,  Michael%Spedding%NULL%1,  Jamie A%Davies%jamie.davies@ed.ac.uk%1,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Ourania S.%Kotsiou%null%1,   Sotirios G.%Zarogiannis%null%1,   Konstantinos I.%Gourgoulianis%null%1]</t>
-  </si>
-  <si>
-    <t>[ Jonathan%Messika%null%1,   Benjamin%Sztrymf%null%1,   Fabrice%Bertrand%null%1,   Typhaine%Billard-Pomares%null%1,   Guilene%Barnaud%null%1,   Catherine%Branger%null%1,   Didier%Dreyfuss%null%1,   Jean-Damien%Ricard%null%1]</t>
-  </si>
-  <si>
-    <t>[Carl%Llor%carles.llor@urv.cat%1,  Ana%Moragas%amoragasm@meditex.es%1,  Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,  Rosa%Morros%rmorros@idiapjgol.org%1,  Helena%Pera%hpera@idiapjgol.org%1,  Josep M%Cots%23465jcy@comb.cat%1,  Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,  Marc%Miravitlles%marcm@separ.es%1,  Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
-  </si>
-  <si>
-    <t>[ G.%Voiriot%null%1,   M.%Chalumeau%null%1,   J.%Messika%null%1,   D.%Basille%null%1,   B.%Philippe%null%1,   J.-D.%Ricard%null%1,   C.%Andrejak%null%1,   V.%Jounieaux%null%1,   O.%Sanchez%null%1,   M.%Fartoukh%null%1]</t>
-  </si>
-  <si>
-    <t>[ Damien%Basille%null%1,   Nathalie%Plouvier%null%1,   Charlotte%Trouve%null%1,   Pierre%Duhaut%null%1,   Claire%Andrejak%null%1,   Vincent%Jounieaux%null%1]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Simon D%Harding%NULL%1,   Joanna L%Sharman%NULL%2,   Joanna L%Sharman%NULL%0,   Elena%Faccenda%NULL%1,   Chris%Southan%NULL%1,   Adam J%Pawson%NULL%1,   Sam%Ireland%NULL%1,   Alasdair J G%Gray%NULL%1,   Liam%Bruce%NULL%1,   Stephen P H%Alexander%NULL%1,   Stephen%Anderton%NULL%1,   Clare%Bryant%NULL%1,   Anthony P%Davenport%NULL%1,   Christian%Doerig%NULL%1,   Doriano%Fabbro%NULL%1,   Francesca%Levi-Schaffer%NULL%1,   Michael%Spedding%NULL%1,   Jamie A%Davies%jamie.davies@ed.ac.uk%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[ Ourania S.%Kotsiou%null%2,    Sotirios G.%Zarogiannis%null%1,    Konstantinos I.%Gourgoulianis%null%1,  Ourania S.%Kotsiou%null%0,  Sotirios G.%Zarogiannis%null%1,  Konstantinos I.%Gourgoulianis%null%1]</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>[ Jonathan%Messika%null%2,    Benjamin%Sztrymf%null%1,    Fabrice%Bertrand%null%1,    Typhaine%Billard-Pomares%null%1,    Guilene%Barnaud%null%1,    Catherine%Branger%null%1,    Didier%Dreyfuss%null%1,    Jean-Damien%Ricard%null%1,  Jonathan%Messika%null%0,  Benjamin%Sztrymf%null%1,  Fabrice%Bertrand%null%1,  Typhaine%Billard-Pomares%null%1,  Guilene%Barnaud%null%1,  Catherine%Branger%null%1,  Didier%Dreyfuss%null%1,  Jean-Damien%Ricard%null%1]</t>
-  </si>
-  <si>
-    <t>[Carl%Llor%carles.llor@urv.cat%1,   Ana%Moragas%amoragasm@meditex.es%1,   Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,   Rosa%Morros%rmorros@idiapjgol.org%1,   Helena%Pera%hpera@idiapjgol.org%1,   Josep M%Cots%23465jcy@comb.cat%1,   Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,   Marc%Miravitlles%marcm@separ.es%1,   Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[ G.%Voiriot%null%2,    M.%Chalumeau%null%1,    J.%Messika%null%1,    D.%Basille%null%1,    B.%Philippe%null%1,    J.-D.%Ricard%null%1,    C.%Andrejak%null%1,    V.%Jounieaux%null%1,    O.%Sanchez%null%1,    M.%Fartoukh%null%1,  G.%Voiriot%null%0,  M.%Chalumeau%null%1,  J.%Messika%null%1,  D.%Basille%null%1,  B.%Philippe%null%1,  J.-D.%Ricard%null%1,  C.%Andrejak%null%1,  V.%Jounieaux%null%1,  O.%Sanchez%null%1,  M.%Fartoukh%null%1]</t>
-  </si>
-  <si>
-    <t>[ Damien%Basille%null%2,    Nathalie%Plouvier%null%1,    Charlotte%Trouve%null%1,    Pierre%Duhaut%null%1,    Claire%Andrejak%null%1,    Vincent%Jounieaux%null%1,  Damien%Basille%null%0,  Nathalie%Plouvier%null%1,  Charlotte%Trouve%null%1,  Pierre%Duhaut%null%1,  Claire%Andrejak%null%1,  Vincent%Jounieaux%null%1]</t>
+    <t>[Simon D%Harding%NULL%1,    Joanna L%Sharman%NULL%2,    Joanna L%Sharman%NULL%0,    Elena%Faccenda%NULL%1,    Chris%Southan%NULL%1,    Adam J%Pawson%NULL%1,    Sam%Ireland%NULL%1,    Alasdair J G%Gray%NULL%1,    Liam%Bruce%NULL%1,    Stephen P H%Alexander%NULL%1,    Stephen%Anderton%NULL%1,    Clare%Bryant%NULL%1,    Anthony P%Davenport%NULL%1,    Christian%Doerig%NULL%1,    Doriano%Fabbro%NULL%1,    Francesca%Levi-Schaffer%NULL%1,    Michael%Spedding%NULL%1,    Jamie A%Davies%jamie.davies@ed.ac.uk%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,     Sotirios G.%Zarogiannis%null%1,     Konstantinos I.%Gourgoulianis%null%1,   Ourania S.%Kotsiou%null%1,   Sotirios G.%Zarogiannis%null%1,   Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,     Benjamin%Sztrymf%null%1,     Fabrice%Bertrand%null%1,     Typhaine%Billard-Pomares%null%1,     Guilene%Barnaud%null%1,     Catherine%Branger%null%1,     Didier%Dreyfuss%null%1,     Jean-Damien%Ricard%null%1,   Jonathan%Messika%null%1,   Benjamin%Sztrymf%null%0,   Fabrice%Bertrand%null%1,   Typhaine%Billard-Pomares%null%1,   Guilene%Barnaud%null%1,   Catherine%Branger%null%1,   Didier%Dreyfuss%null%1,   Jean-Damien%Ricard%null%0]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,    Ana%Moragas%amoragasm@meditex.es%1,    Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,    Rosa%Morros%rmorros@idiapjgol.org%1,    Helena%Pera%hpera@idiapjgol.org%1,    Josep M%Cots%23465jcy@comb.cat%1,    Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,    Marc%Miravitlles%marcm@separ.es%1,    Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,     M.%Chalumeau%null%1,     J.%Messika%null%1,     D.%Basille%null%1,     B.%Philippe%null%1,     J.-D.%Ricard%null%1,     C.%Andrejak%null%1,     V.%Jounieaux%null%1,     O.%Sanchez%null%1,     M.%Fartoukh%null%1,   G.%Voiriot%null%1,   M.%Chalumeau%null%1,   J.%Messika%null%1,   D.%Basille%null%1,   B.%Philippe%null%1,   J.-D.%Ricard%null%1,   C.%Andrejak%null%1,   V.%Jounieaux%null%1,   O.%Sanchez%null%1,   M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,     Nathalie%Plouvier%null%1,     Charlotte%Trouve%null%1,     Pierre%Duhaut%null%1,     Claire%Andrejak%null%1,     Vincent%Jounieaux%null%1,   Damien%Basille%null%1,   Nathalie%Plouvier%null%1,   Charlotte%Trouve%null%1,   Pierre%Duhaut%null%1,   Claire%Andrejak%null%1,   Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,     Joanna L%Sharman%NULL%2,     Joanna L%Sharman%NULL%0,     Elena%Faccenda%NULL%1,     Chris%Southan%NULL%1,     Adam J%Pawson%NULL%1,     Sam%Ireland%NULL%1,     Alasdair J G%Gray%NULL%1,     Liam%Bruce%NULL%1,     Stephen P H%Alexander%NULL%1,     Stephen%Anderton%NULL%1,     Clare%Bryant%NULL%1,     Anthony P%Davenport%NULL%1,     Christian%Doerig%NULL%1,     Doriano%Fabbro%NULL%1,     Francesca%Levi-Schaffer%NULL%1,     Michael%Spedding%NULL%1,     Jamie A%Davies%jamie.davies@ed.ac.uk%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,      Sotirios G.%Zarogiannis%null%1,      Konstantinos I.%Gourgoulianis%null%1,    Ourania S.%Kotsiou%null%1,    Sotirios G.%Zarogiannis%null%1,    Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,      Benjamin%Sztrymf%null%1,      Fabrice%Bertrand%null%1,      Typhaine%Billard-Pomares%null%1,      Guilene%Barnaud%null%1,      Catherine%Branger%null%1,      Didier%Dreyfuss%null%1,      Jean-Damien%Ricard%null%1,    Jonathan%Messika%null%1,    Benjamin%Sztrymf%null%0,    Fabrice%Bertrand%null%1,    Typhaine%Billard-Pomares%null%1,    Guilene%Barnaud%null%1,    Catherine%Branger%null%1,    Didier%Dreyfuss%null%1,    Jean-Damien%Ricard%null%0]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,     Ana%Moragas%amoragasm@meditex.es%1,     Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,     Rosa%Morros%rmorros@idiapjgol.org%1,     Helena%Pera%hpera@idiapjgol.org%1,     Josep M%Cots%23465jcy@comb.cat%1,     Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,     Marc%Miravitlles%marcm@separ.es%1,     Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,      M.%Chalumeau%null%1,      J.%Messika%null%1,      D.%Basille%null%1,      B.%Philippe%null%1,      J.-D.%Ricard%null%1,      C.%Andrejak%null%1,      V.%Jounieaux%null%1,      O.%Sanchez%null%1,      M.%Fartoukh%null%1,    G.%Voiriot%null%1,    M.%Chalumeau%null%1,    J.%Messika%null%1,    D.%Basille%null%1,    B.%Philippe%null%1,    J.-D.%Ricard%null%1,    C.%Andrejak%null%1,    V.%Jounieaux%null%1,    O.%Sanchez%null%1,    M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,      Nathalie%Plouvier%null%1,      Charlotte%Trouve%null%1,      Pierre%Duhaut%null%1,      Claire%Andrejak%null%1,      Vincent%Jounieaux%null%1,    Damien%Basille%null%1,    Nathalie%Plouvier%null%1,    Charlotte%Trouve%null%1,    Pierre%Duhaut%null%1,    Claire%Andrejak%null%1,    Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,      Joanna L%Sharman%NULL%2,      Joanna L%Sharman%NULL%0,      Elena%Faccenda%NULL%1,      Chris%Southan%NULL%1,      Adam J%Pawson%NULL%1,      Sam%Ireland%NULL%1,      Alasdair J G%Gray%NULL%1,      Liam%Bruce%NULL%1,      Stephen P H%Alexander%NULL%1,      Stephen%Anderton%NULL%1,      Clare%Bryant%NULL%1,      Anthony P%Davenport%NULL%1,      Christian%Doerig%NULL%1,      Doriano%Fabbro%NULL%1,      Francesca%Levi-Schaffer%NULL%1,      Michael%Spedding%NULL%1,      Jamie A%Davies%jamie.davies@ed.ac.uk%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,       Sotirios G.%Zarogiannis%null%1,       Konstantinos I.%Gourgoulianis%null%1,     Ourania S.%Kotsiou%null%1,     Sotirios G.%Zarogiannis%null%1,     Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,       Benjamin%Sztrymf%null%1,       Fabrice%Bertrand%null%1,       Typhaine%Billard-Pomares%null%1,       Guilene%Barnaud%null%1,       Catherine%Branger%null%1,       Didier%Dreyfuss%null%1,       Jean-Damien%Ricard%null%1,     Jonathan%Messika%null%1,     Benjamin%Sztrymf%null%0,     Fabrice%Bertrand%null%1,     Typhaine%Billard-Pomares%null%1,     Guilene%Barnaud%null%1,     Catherine%Branger%null%1,     Didier%Dreyfuss%null%1,     Jean-Damien%Ricard%null%0]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,      Ana%Moragas%amoragasm@meditex.es%1,      Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,      Rosa%Morros%rmorros@idiapjgol.org%1,      Helena%Pera%hpera@idiapjgol.org%1,      Josep M%Cots%23465jcy@comb.cat%1,      Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,      Marc%Miravitlles%marcm@separ.es%1,      Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,       M.%Chalumeau%null%1,       J.%Messika%null%1,       D.%Basille%null%1,       B.%Philippe%null%1,       J.-D.%Ricard%null%1,       C.%Andrejak%null%1,       V.%Jounieaux%null%1,       O.%Sanchez%null%1,       M.%Fartoukh%null%1,     G.%Voiriot%null%1,     M.%Chalumeau%null%1,     J.%Messika%null%1,     D.%Basille%null%1,     B.%Philippe%null%1,     J.-D.%Ricard%null%1,     C.%Andrejak%null%1,     V.%Jounieaux%null%1,     O.%Sanchez%null%1,     M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,       Nathalie%Plouvier%null%1,       Charlotte%Trouve%null%1,       Pierre%Duhaut%null%1,       Claire%Andrejak%null%1,       Vincent%Jounieaux%null%1,     Damien%Basille%null%1,     Nathalie%Plouvier%null%1,     Charlotte%Trouve%null%1,     Pierre%Duhaut%null%1,     Claire%Andrejak%null%1,     Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,       Joanna L%Sharman%NULL%2,       Joanna L%Sharman%NULL%0,       Elena%Faccenda%NULL%1,       Chris%Southan%NULL%1,       Adam J%Pawson%NULL%1,       Sam%Ireland%NULL%1,       Alasdair J G%Gray%NULL%1,       Liam%Bruce%NULL%1,       Stephen P H%Alexander%NULL%1,       Stephen%Anderton%NULL%1,       Clare%Bryant%NULL%1,       Anthony P%Davenport%NULL%1,       Christian%Doerig%NULL%1,       Doriano%Fabbro%NULL%1,       Francesca%Levi-Schaffer%NULL%1,       Michael%Spedding%NULL%1,       Jamie A%Davies%jamie.davies@ed.ac.uk%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,        Sotirios G.%Zarogiannis%null%1,        Konstantinos I.%Gourgoulianis%null%1,      Ourania S.%Kotsiou%null%1,      Sotirios G.%Zarogiannis%null%1,      Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,        Benjamin%Sztrymf%null%1,        Fabrice%Bertrand%null%1,        Typhaine%Billard-Pomares%null%1,        Guilene%Barnaud%null%1,        Catherine%Branger%null%1,        Didier%Dreyfuss%null%1,        Jean-Damien%Ricard%null%1,      Jonathan%Messika%null%1,      Benjamin%Sztrymf%null%0,      Fabrice%Bertrand%null%1,      Typhaine%Billard-Pomares%null%1,      Guilene%Barnaud%null%1,      Catherine%Branger%null%1,      Didier%Dreyfuss%null%1,      Jean-Damien%Ricard%null%0]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,       Ana%Moragas%amoragasm@meditex.es%1,       Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,       Rosa%Morros%rmorros@idiapjgol.org%1,       Helena%Pera%hpera@idiapjgol.org%1,       Josep M%Cots%23465jcy@comb.cat%1,       Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,       Marc%Miravitlles%marcm@separ.es%1,       Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,        M.%Chalumeau%null%1,        J.%Messika%null%1,        D.%Basille%null%1,        B.%Philippe%null%1,        J.-D.%Ricard%null%1,        C.%Andrejak%null%1,        V.%Jounieaux%null%1,        O.%Sanchez%null%1,        M.%Fartoukh%null%1,      G.%Voiriot%null%1,      M.%Chalumeau%null%1,      J.%Messika%null%1,      D.%Basille%null%1,      B.%Philippe%null%1,      J.-D.%Ricard%null%1,      C.%Andrejak%null%1,      V.%Jounieaux%null%1,      O.%Sanchez%null%1,      M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,        Nathalie%Plouvier%null%1,        Charlotte%Trouve%null%1,        Pierre%Duhaut%null%1,        Claire%Andrejak%null%1,        Vincent%Jounieaux%null%1,      Damien%Basille%null%1,      Nathalie%Plouvier%null%1,      Charlotte%Trouve%null%1,      Pierre%Duhaut%null%1,      Claire%Andrejak%null%1,      Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,        Joanna L%Sharman%NULL%2,        Joanna L%Sharman%NULL%0,        Elena%Faccenda%NULL%1,        Chris%Southan%NULL%1,        Adam J%Pawson%NULL%1,        Sam%Ireland%NULL%1,        Alasdair J G%Gray%NULL%1,        Liam%Bruce%NULL%1,        Stephen P H%Alexander%NULL%1,        Stephen%Anderton%NULL%1,        Clare%Bryant%NULL%1,        Anthony P%Davenport%NULL%1,        Christian%Doerig%NULL%1,        Doriano%Fabbro%NULL%1,        Francesca%Levi-Schaffer%NULL%1,        Michael%Spedding%NULL%1,        Jamie A%Davies%jamie.davies@ed.ac.uk%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,         Sotirios G.%Zarogiannis%null%1,         Konstantinos I.%Gourgoulianis%null%1,       Ourania S.%Kotsiou%null%1,       Sotirios G.%Zarogiannis%null%1,       Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,         Benjamin%Sztrymf%null%1,         Fabrice%Bertrand%null%1,         Typhaine%Billard-Pomares%null%1,         Guilene%Barnaud%null%1,         Catherine%Branger%null%1,         Didier%Dreyfuss%null%1,         Jean-Damien%Ricard%null%1,       Jonathan%Messika%null%1,       Benjamin%Sztrymf%null%0,       Fabrice%Bertrand%null%1,       Typhaine%Billard-Pomares%null%1,       Guilene%Barnaud%null%1,       Catherine%Branger%null%1,       Didier%Dreyfuss%null%1,       Jean-Damien%Ricard%null%0]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,        Ana%Moragas%amoragasm@meditex.es%1,        Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,        Rosa%Morros%rmorros@idiapjgol.org%1,        Helena%Pera%hpera@idiapjgol.org%1,        Josep M%Cots%23465jcy@comb.cat%1,        Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,        Marc%Miravitlles%marcm@separ.es%1,        Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,         M.%Chalumeau%null%1,         J.%Messika%null%1,         D.%Basille%null%1,         B.%Philippe%null%1,         J.-D.%Ricard%null%1,         C.%Andrejak%null%1,         V.%Jounieaux%null%1,         O.%Sanchez%null%1,         M.%Fartoukh%null%1,       G.%Voiriot%null%1,       M.%Chalumeau%null%1,       J.%Messika%null%1,       D.%Basille%null%1,       B.%Philippe%null%1,       J.-D.%Ricard%null%1,       C.%Andrejak%null%1,       V.%Jounieaux%null%1,       O.%Sanchez%null%1,       M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,         Nathalie%Plouvier%null%1,         Charlotte%Trouve%null%1,         Pierre%Duhaut%null%1,         Claire%Andrejak%null%1,         Vincent%Jounieaux%null%1,       Damien%Basille%null%1,       Nathalie%Plouvier%null%1,       Charlotte%Trouve%null%1,       Pierre%Duhaut%null%1,       Claire%Andrejak%null%1,       Vincent%Jounieaux%null%1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="166" formatCode="yyyy mmmm d"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="166" formatCode="yyyy\ mmmm\ d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -317,7 +362,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -327,44 +372,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -554,20 +598,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,15 +642,15 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43104.0</v>
+        <v>43104</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -610,114 +659,114 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>42767.0</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>41913.0</v>
+        <v>41913</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>40715.0</v>
+        <v>40715</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>42510.0</v>
+        <v>42510</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -735,76 +784,76 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>43191.0</v>
+        <v>43191</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>42826.0</v>
+        <v>42826</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>43282.0</v>
+        <v>43282</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -822,23 +871,23 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
   <si>
     <t>Doi</t>
   </si>
@@ -326,6 +326,69 @@
   </si>
   <si>
     <t>[ Damien%Basille%null%1,         Nathalie%Plouvier%null%1,         Charlotte%Trouve%null%1,         Pierre%Duhaut%null%1,         Claire%Andrejak%null%1,         Vincent%Jounieaux%null%1,       Damien%Basille%null%1,       Nathalie%Plouvier%null%1,       Charlotte%Trouve%null%1,       Pierre%Duhaut%null%1,       Claire%Andrejak%null%1,       Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,         Joanna L%Sharman%NULL%2,         Joanna L%Sharman%NULL%0,         Elena%Faccenda%NULL%1,         Chris%Southan%NULL%1,         Adam J%Pawson%NULL%1,         Sam%Ireland%NULL%1,         Alasdair J G%Gray%NULL%1,         Liam%Bruce%NULL%1,         Stephen P H%Alexander%NULL%1,         Stephen%Anderton%NULL%1,         Clare%Bryant%NULL%1,         Anthony P%Davenport%NULL%1,         Christian%Doerig%NULL%1,         Doriano%Fabbro%NULL%1,         Francesca%Levi-Schaffer%NULL%1,         Michael%Spedding%NULL%1,         Jamie A%Davies%jamie.davies@ed.ac.uk%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,          Sotirios G.%Zarogiannis%null%1,          Konstantinos I.%Gourgoulianis%null%1,        Ourania S.%Kotsiou%null%1,        Sotirios G.%Zarogiannis%null%1,        Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,          Benjamin%Sztrymf%null%1,          Fabrice%Bertrand%null%1,          Typhaine%Billard-Pomares%null%1,          Guilene%Barnaud%null%1,          Catherine%Branger%null%1,          Didier%Dreyfuss%null%1,          Jean-Damien%Ricard%null%1,        Jonathan%Messika%null%1,        Benjamin%Sztrymf%null%1,        Fabrice%Bertrand%null%1,        Typhaine%Billard-Pomares%null%1,        Guilene%Barnaud%null%1,        Catherine%Branger%null%1,        Didier%Dreyfuss%null%1,        Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,         Ana%Moragas%amoragasm@meditex.es%1,         Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,         Rosa%Morros%rmorros@idiapjgol.org%1,         Helena%Pera%hpera@idiapjgol.org%1,         Josep M%Cots%23465jcy@comb.cat%1,         Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,         Marc%Miravitlles%marcm@separ.es%1,         Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>"Nonsteroidal Anti-Inflammatory Drug and Aspirin Use, and Mortality among Critically Ill Pandemic H1N1 Influenza Patients: an Exploratory Analysis"</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1, Frances L.%Vaughn%xref no email%1, Andrew D.%Mosholder%xref no email%1, Elizabeth M.%Maloney%xref no email%1, Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,          M.%Chalumeau%null%1,          J.%Messika%null%1,          D.%Basille%null%1,          B.%Philippe%null%1,          J.-D.%Ricard%null%1,          C.%Andrejak%null%1,          V.%Jounieaux%null%1,          O.%Sanchez%null%1,          M.%Fartoukh%null%1,        G.%Voiriot%null%1,        M.%Chalumeau%null%1,        J.%Messika%null%1,        D.%Basille%null%1,        B.%Philippe%null%1,        J.-D.%Ricard%null%1,        C.%Andrejak%null%1,        V.%Jounieaux%null%1,        O.%Sanchez%null%1,        M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,          Nathalie%Plouvier%null%1,          Charlotte%Trouve%null%1,          Pierre%Duhaut%null%1,          Claire%Andrejak%null%1,          Vincent%Jounieaux%null%1,        Damien%Basille%null%1,        Nathalie%Plouvier%null%1,        Charlotte%Trouve%null%1,        Pierre%Duhaut%null%1,        Claire%Andrejak%null%1,        Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>"Nonsteroidal Antiinflammatory Drug Use and Clinical Outcomes of Community-acquired Pneumonia"</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1, Reimar Wernich%Thomsen%xref no email%1, Morten%Madsen%xref no email%1, Pierre%Duhaut%xref no email%1, Claire%Andrejak%xref no email%1, Vincent%Jounieaux%xref no email%1, Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,          Joanna L%Sharman%NULL%2,          Joanna L%Sharman%NULL%0,          Elena%Faccenda%NULL%1,          Chris%Southan%NULL%1,          Adam J%Pawson%NULL%1,          Sam%Ireland%NULL%1,          Alasdair J G%Gray%NULL%1,          Liam%Bruce%NULL%1,          Stephen P H%Alexander%NULL%1,          Stephen%Anderton%NULL%1,          Clare%Bryant%NULL%1,          Anthony P%Davenport%NULL%1,          Christian%Doerig%NULL%1,          Doriano%Fabbro%NULL%1,          Francesca%Levi-Schaffer%NULL%1,          Michael%Spedding%NULL%1,          Jamie A%Davies%jamie.davies@ed.ac.uk%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,           Sotirios G.%Zarogiannis%null%1,           Konstantinos I.%Gourgoulianis%null%1,         Ourania S.%Kotsiou%null%1,         Sotirios G.%Zarogiannis%null%1,         Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,           Benjamin%Sztrymf%null%1,           Fabrice%Bertrand%null%1,           Typhaine%Billard-Pomares%null%1,           Guilene%Barnaud%null%1,           Catherine%Branger%null%1,           Didier%Dreyfuss%null%1,           Jean-Damien%Ricard%null%1,         Jonathan%Messika%null%1,         Benjamin%Sztrymf%null%1,         Fabrice%Bertrand%null%1,         Typhaine%Billard-Pomares%null%1,         Guilene%Barnaud%null%1,         Catherine%Branger%null%1,         Didier%Dreyfuss%null%1,         Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,          Ana%Moragas%amoragasm@meditex.es%1,          Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,          Rosa%Morros%rmorros@idiapjgol.org%1,          Helena%Pera%hpera@idiapjgol.org%1,          Josep M%Cots%23465jcy@comb.cat%1,          Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,          Marc%Miravitlles%marcm@separ.es%1,          Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,  Frances L.%Vaughn%xref no email%1,  Andrew D.%Mosholder%xref no email%1,  Elizabeth M.%Maloney%xref no email%1,  Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,           M.%Chalumeau%null%1,           J.%Messika%null%1,           D.%Basille%null%1,           B.%Philippe%null%1,           J.-D.%Ricard%null%1,           C.%Andrejak%null%1,           V.%Jounieaux%null%1,           O.%Sanchez%null%1,           M.%Fartoukh%null%1,         G.%Voiriot%null%1,         M.%Chalumeau%null%1,         J.%Messika%null%1,         D.%Basille%null%1,         B.%Philippe%null%1,         J.-D.%Ricard%null%1,         C.%Andrejak%null%1,         V.%Jounieaux%null%1,         O.%Sanchez%null%1,         M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,           Nathalie%Plouvier%null%1,           Charlotte%Trouve%null%1,           Pierre%Duhaut%null%1,           Claire%Andrejak%null%1,           Vincent%Jounieaux%null%1,         Damien%Basille%null%1,         Nathalie%Plouvier%null%1,         Charlotte%Trouve%null%1,         Pierre%Duhaut%null%1,         Claire%Andrejak%null%1,         Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,  Reimar Wernich%Thomsen%xref no email%1,  Morten%Madsen%xref no email%1,  Pierre%Duhaut%xref no email%1,  Claire%Andrejak%xref no email%1,  Vincent%Jounieaux%xref no email%1,  Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -659,7 +722,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -688,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -717,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -746,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -769,22 +832,22 @@
         <v>42510</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
         <v>50</v>
@@ -804,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -833,7 +896,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -856,22 +919,22 @@
         <v>43282</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="120">
   <si>
     <t>Doi</t>
   </si>
@@ -389,6 +389,75 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,  Reimar Wernich%Thomsen%xref no email%1,  Morten%Madsen%xref no email%1,  Pierre%Duhaut%xref no email%1,  Claire%Andrejak%xref no email%1,  Vincent%Jounieaux%xref no email%1,  Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,           Joanna L%Sharman%NULL%2,           Joanna L%Sharman%NULL%0,           Elena%Faccenda%NULL%1,           Chris%Southan%NULL%1,           Adam J%Pawson%NULL%1,           Sam%Ireland%NULL%1,           Alasdair J G%Gray%NULL%1,           Liam%Bruce%NULL%1,           Stephen P H%Alexander%NULL%1,           Stephen%Anderton%NULL%1,           Clare%Bryant%NULL%1,           Anthony P%Davenport%NULL%1,           Christian%Doerig%NULL%1,           Doriano%Fabbro%NULL%1,           Francesca%Levi-Schaffer%NULL%1,           Michael%Spedding%NULL%1,           Jamie A%Davies%jamie.davies@ed.ac.uk%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,            Sotirios G.%Zarogiannis%null%1,            Konstantinos I.%Gourgoulianis%null%1,          Ourania S.%Kotsiou%null%1,          Sotirios G.%Zarogiannis%null%1,          Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,            Benjamin%Sztrymf%null%1,            Fabrice%Bertrand%null%1,            Typhaine%Billard-Pomares%null%1,            Guilene%Barnaud%null%1,            Catherine%Branger%null%1,            Didier%Dreyfuss%null%1,            Jean-Damien%Ricard%null%1,          Jonathan%Messika%null%1,          Benjamin%Sztrymf%null%1,          Fabrice%Bertrand%null%1,          Typhaine%Billard-Pomares%null%1,          Guilene%Barnaud%null%1,          Catherine%Branger%null%1,          Didier%Dreyfuss%null%1,          Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,           Ana%Moragas%amoragasm@meditex.es%1,           Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,           Rosa%Morros%rmorros@idiapjgol.org%1,           Helena%Pera%hpera@idiapjgol.org%1,           Josep M%Cots%23465jcy@comb.cat%1,           Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,           Marc%Miravitlles%marcm@separ.es%1,           Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,   Frances L.%Vaughn%xref no email%1,   Andrew D.%Mosholder%xref no email%1,   Elizabeth M.%Maloney%xref no email%1,   Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,            M.%Chalumeau%null%1,            J.%Messika%null%1,            D.%Basille%null%1,            B.%Philippe%null%1,            J.-D.%Ricard%null%1,            C.%Andrejak%null%1,            V.%Jounieaux%null%1,            O.%Sanchez%null%1,            M.%Fartoukh%null%1,          G.%Voiriot%null%1,          M.%Chalumeau%null%1,          J.%Messika%null%1,          D.%Basille%null%1,          B.%Philippe%null%1,          J.-D.%Ricard%null%1,          C.%Andrejak%null%1,          V.%Jounieaux%null%1,          O.%Sanchez%null%1,          M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,            Nathalie%Plouvier%null%1,            Charlotte%Trouve%null%1,            Pierre%Duhaut%null%1,            Claire%Andrejak%null%1,            Vincent%Jounieaux%null%1,          Damien%Basille%null%1,          Nathalie%Plouvier%null%1,          Charlotte%Trouve%null%1,          Pierre%Duhaut%null%1,          Claire%Andrejak%null%1,          Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,   Reimar Wernich%Thomsen%xref no email%1,   Morten%Madsen%xref no email%1,   Pierre%Duhaut%xref no email%1,   Claire%Andrejak%xref no email%1,   Vincent%Jounieaux%xref no email%1,   Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,            Joanna L%Sharman%NULL%2,            Joanna L%Sharman%NULL%0,            Elena%Faccenda%NULL%1,            Chris%Southan%NULL%1,            Adam J%Pawson%NULL%1,            Sam%Ireland%NULL%1,            Alasdair J G%Gray%NULL%1,            Liam%Bruce%NULL%1,            Stephen P H%Alexander%NULL%1,            Stephen%Anderton%NULL%1,            Clare%Bryant%NULL%1,            Anthony P%Davenport%NULL%1,            Christian%Doerig%NULL%1,            Doriano%Fabbro%NULL%1,            Francesca%Levi-Schaffer%NULL%1,            Michael%Spedding%NULL%1,            Jamie A%Davies%jamie.davies@ed.ac.uk%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,             Sotirios G.%Zarogiannis%null%1,             Konstantinos I.%Gourgoulianis%null%1,           Ourania S.%Kotsiou%null%1,           Sotirios G.%Zarogiannis%null%1,           Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,             Benjamin%Sztrymf%null%1,             Fabrice%Bertrand%null%1,             Typhaine%Billard-Pomares%null%1,             Guilene%Barnaud%null%1,             Catherine%Branger%null%1,             Didier%Dreyfuss%null%1,             Jean-Damien%Ricard%null%1,           Jonathan%Messika%null%1,           Benjamin%Sztrymf%null%1,           Fabrice%Bertrand%null%1,           Typhaine%Billard-Pomares%null%1,           Guilene%Barnaud%null%1,           Catherine%Branger%null%1,           Didier%Dreyfuss%null%1,           Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,            Ana%Moragas%amoragasm@meditex.es%1,            Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,            Rosa%Morros%rmorros@idiapjgol.org%1,            Helena%Pera%hpera@idiapjgol.org%1,            Josep M%Cots%23465jcy@comb.cat%1,            Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,            Marc%Miravitlles%marcm@separ.es%1,            Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,    Frances L.%Vaughn%xref no email%1,    Andrew D.%Mosholder%xref no email%1,    Elizabeth M.%Maloney%xref no email%1,    Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,             M.%Chalumeau%null%1,             J.%Messika%null%1,             D.%Basille%null%1,             B.%Philippe%null%1,             J.-D.%Ricard%null%1,             C.%Andrejak%null%1,             V.%Jounieaux%null%1,             O.%Sanchez%null%1,             M.%Fartoukh%null%1,           G.%Voiriot%null%1,           M.%Chalumeau%null%1,           J.%Messika%null%1,           D.%Basille%null%1,           B.%Philippe%null%1,           J.-D.%Ricard%null%1,           C.%Andrejak%null%1,           V.%Jounieaux%null%1,           O.%Sanchez%null%1,           M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Purpose
+Non-steroidal anti-inflammatory drugs (NSAIDs) are frequently prescribed or used as self-medication in cases of community-acquired pneumonia (CAP).
+ Nevertheless, the consequences of such medication on the risk of pleuroparenchymal complications are not well known.
+ The aim was to investigate whether exposure to NSAIDs prior to hospital admission among patients suffering from CAP is associated with the development of pleural complications or a lung abscess.
+Methods
+All consecutive non-immunocompromised patients with CAP and admitted to a university hospital were prospectively included (2-year period).
+ The risk of pleuropulmonary complications was analyzed according to previous exposure to NSAIDs.
+Results
+Of the 221 included patients, 40 (18.1%) had developed a pleuropulmonary complication.
+ NSAIDs intake prior to admission was reported for 24 patients (10.9%) who were younger (50.6 ± 18.5 vs.
+ 66.5 ± 16.4 years; p = 0.001), had less comorbidities (60 vs.
+ 25.1%; p = 0.001), had a longer duration between the first symptoms of CAP and the start of an antibiotic therapy (6.1 ± 7.6 vs.
+ 2.8 ± 3.8 days; p = 0.001), and who had a higher incidence of pleuropulmonary complications (33.3 vs.
+ 16.2%; p = 0.048).
+ In multivariate analyses, two factors were independently associated with the development of pleuroparenchymal complications: NSAIDs intake [Odds Ratio (OR) = 2.57 [1.02–6.64]; p = 0.049] and alcohol abuse (OR = 2.68 [1.27–5.69]; p = 0.01).
+Conclusions
+Our findings suggest that NSAIDs, often taken by young and healthy patients, may worsen the course of CAP with delayed therapy and a higher rate of pleuropulmonary complications.
+</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%0,  Nathalie%Plouvier%null%1,  Charlotte%Trouve%null%1,  Pierre%Duhaut%null%1,  Claire%Andrejak%null%1,  Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,    Reimar Wernich%Thomsen%xref no email%1,    Morten%Madsen%xref no email%1,    Pierre%Duhaut%xref no email%1,    Claire%Andrejak%xref no email%1,    Vincent%Jounieaux%xref no email%1,    Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -722,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -751,7 +820,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -780,7 +849,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -809,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -838,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -867,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -893,10 +962,10 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -925,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="136">
   <si>
     <t>Doi</t>
   </si>
@@ -458,6 +458,54 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,    Reimar Wernich%Thomsen%xref no email%1,    Morten%Madsen%xref no email%1,    Pierre%Duhaut%xref no email%1,    Claire%Andrejak%xref no email%1,    Vincent%Jounieaux%xref no email%1,    Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,             Joanna L%Sharman%NULL%2,             Joanna L%Sharman%NULL%0,             Elena%Faccenda%NULL%1,             Chris%Southan%NULL%1,             Adam J%Pawson%NULL%1,             Sam%Ireland%NULL%1,             Alasdair J G%Gray%NULL%1,             Liam%Bruce%NULL%1,             Stephen P H%Alexander%NULL%1,             Stephen%Anderton%NULL%1,             Clare%Bryant%NULL%1,             Anthony P%Davenport%NULL%1,             Christian%Doerig%NULL%1,             Doriano%Fabbro%NULL%1,             Francesca%Levi-Schaffer%NULL%1,             Michael%Spedding%NULL%1,             Jamie A%Davies%jamie.davies@ed.ac.uk%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,              Sotirios G.%Zarogiannis%null%1,              Konstantinos I.%Gourgoulianis%null%1,            Ourania S.%Kotsiou%null%1,            Sotirios G.%Zarogiannis%null%1,            Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,              Benjamin%Sztrymf%null%1,              Fabrice%Bertrand%null%1,              Typhaine%Billard-Pomares%null%1,              Guilene%Barnaud%null%1,              Catherine%Branger%null%1,              Didier%Dreyfuss%null%1,              Jean-Damien%Ricard%null%1,            Jonathan%Messika%null%1,            Benjamin%Sztrymf%null%1,            Fabrice%Bertrand%null%1,            Typhaine%Billard-Pomares%null%1,            Guilene%Barnaud%null%1,            Catherine%Branger%null%1,            Didier%Dreyfuss%null%1,            Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,             Ana%Moragas%amoragasm@meditex.es%1,             Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,             Rosa%Morros%rmorros@idiapjgol.org%1,             Helena%Pera%hpera@idiapjgol.org%1,             Josep M%Cots%23465jcy@comb.cat%1,             Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,             Marc%Miravitlles%marcm@separ.es%1,             Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,     Frances L.%Vaughn%xref no email%1,     Andrew D.%Mosholder%xref no email%1,     Elizabeth M.%Maloney%xref no email%1,     Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,              M.%Chalumeau%null%1,              J.%Messika%null%1,              D.%Basille%null%1,              B.%Philippe%null%1,              J.-D.%Ricard%null%1,              C.%Andrejak%null%1,              V.%Jounieaux%null%1,              O.%Sanchez%null%1,              M.%Fartoukh%null%1,            G.%Voiriot%null%1,            M.%Chalumeau%null%1,            J.%Messika%null%1,            D.%Basille%null%1,            B.%Philippe%null%1,            J.-D.%Ricard%null%1,            C.%Andrejak%null%1,            V.%Jounieaux%null%1,            O.%Sanchez%null%1,            M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,   Nathalie%Plouvier%null%1,   Charlotte%Trouve%null%1,   Pierre%Duhaut%null%1,   Claire%Andrejak%null%1,   Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,     Reimar Wernich%Thomsen%xref no email%1,     Morten%Madsen%xref no email%1,     Pierre%Duhaut%xref no email%1,     Claire%Andrejak%xref no email%1,     Vincent%Jounieaux%xref no email%1,     Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,              Joanna L%Sharman%NULL%2,              Joanna L%Sharman%NULL%0,              Elena%Faccenda%NULL%1,              Chris%Southan%NULL%1,              Adam J%Pawson%NULL%1,              Sam%Ireland%NULL%1,              Alasdair J G%Gray%NULL%1,              Liam%Bruce%NULL%1,              Stephen P H%Alexander%NULL%1,              Stephen%Anderton%NULL%1,              Clare%Bryant%NULL%1,              Anthony P%Davenport%NULL%1,              Christian%Doerig%NULL%1,              Doriano%Fabbro%NULL%1,              Francesca%Levi-Schaffer%NULL%1,              Michael%Spedding%NULL%1,              Jamie A%Davies%jamie.davies@ed.ac.uk%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,               Sotirios G.%Zarogiannis%null%1,               Konstantinos I.%Gourgoulianis%null%1,             Ourania S.%Kotsiou%null%1,             Sotirios G.%Zarogiannis%null%1,             Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,               Benjamin%Sztrymf%null%1,               Fabrice%Bertrand%null%1,               Typhaine%Billard-Pomares%null%1,               Guilene%Barnaud%null%1,               Catherine%Branger%null%1,               Didier%Dreyfuss%null%1,               Jean-Damien%Ricard%null%1,             Jonathan%Messika%null%1,             Benjamin%Sztrymf%null%1,             Fabrice%Bertrand%null%1,             Typhaine%Billard-Pomares%null%1,             Guilene%Barnaud%null%1,             Catherine%Branger%null%1,             Didier%Dreyfuss%null%1,             Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,              Ana%Moragas%amoragasm@meditex.es%1,              Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,              Rosa%Morros%rmorros@idiapjgol.org%1,              Helena%Pera%hpera@idiapjgol.org%1,              Josep M%Cots%23465jcy@comb.cat%1,              Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,              Marc%Miravitlles%marcm@separ.es%1,              Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,      Frances L.%Vaughn%xref no email%1,      Andrew D.%Mosholder%xref no email%1,      Elizabeth M.%Maloney%xref no email%1,      Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,               M.%Chalumeau%null%1,               J.%Messika%null%1,               D.%Basille%null%1,               B.%Philippe%null%1,               J.-D.%Ricard%null%1,               C.%Andrejak%null%1,               V.%Jounieaux%null%1,               O.%Sanchez%null%1,               M.%Fartoukh%null%1,             G.%Voiriot%null%1,             M.%Chalumeau%null%1,             J.%Messika%null%1,             D.%Basille%null%1,             B.%Philippe%null%1,             J.-D.%Ricard%null%1,             C.%Andrejak%null%1,             V.%Jounieaux%null%1,             O.%Sanchez%null%1,             M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,    Nathalie%Plouvier%null%1,    Charlotte%Trouve%null%1,    Pierre%Duhaut%null%1,    Claire%Andrejak%null%1,    Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,      Reimar Wernich%Thomsen%xref no email%1,      Morten%Madsen%xref no email%1,      Pierre%Duhaut%xref no email%1,      Claire%Andrejak%xref no email%1,      Vincent%Jounieaux%xref no email%1,      Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -791,7 +839,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -820,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -849,7 +897,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -878,7 +926,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -907,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -936,7 +984,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -965,7 +1013,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -994,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="144">
   <si>
     <t>Doi</t>
   </si>
@@ -506,6 +506,30 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,      Reimar Wernich%Thomsen%xref no email%1,      Morten%Madsen%xref no email%1,      Pierre%Duhaut%xref no email%1,      Claire%Andrejak%xref no email%1,      Vincent%Jounieaux%xref no email%1,      Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,               Joanna L%Sharman%NULL%2,               Joanna L%Sharman%NULL%0,               Elena%Faccenda%NULL%1,               Chris%Southan%NULL%1,               Adam J%Pawson%NULL%1,               Sam%Ireland%NULL%1,               Alasdair J G%Gray%NULL%1,               Liam%Bruce%NULL%1,               Stephen P H%Alexander%NULL%1,               Stephen%Anderton%NULL%1,               Clare%Bryant%NULL%1,               Anthony P%Davenport%NULL%1,               Christian%Doerig%NULL%1,               Doriano%Fabbro%NULL%1,               Francesca%Levi-Schaffer%NULL%1,               Michael%Spedding%NULL%1,               Jamie A%Davies%jamie.davies@ed.ac.uk%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                Sotirios G.%Zarogiannis%null%1,                Konstantinos I.%Gourgoulianis%null%1,              Ourania S.%Kotsiou%null%1,              Sotirios G.%Zarogiannis%null%1,              Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                Benjamin%Sztrymf%null%1,                Fabrice%Bertrand%null%1,                Typhaine%Billard-Pomares%null%1,                Guilene%Barnaud%null%1,                Catherine%Branger%null%1,                Didier%Dreyfuss%null%1,                Jean-Damien%Ricard%null%1,              Jonathan%Messika%null%1,              Benjamin%Sztrymf%null%1,              Fabrice%Bertrand%null%1,              Typhaine%Billard-Pomares%null%1,              Guilene%Barnaud%null%1,              Catherine%Branger%null%1,              Didier%Dreyfuss%null%1,              Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,               Ana%Moragas%amoragasm@meditex.es%1,               Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,               Rosa%Morros%rmorros@idiapjgol.org%1,               Helena%Pera%hpera@idiapjgol.org%1,               Josep M%Cots%23465jcy@comb.cat%1,               Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,               Marc%Miravitlles%marcm@separ.es%1,               Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,       Frances L.%Vaughn%xref no email%1,       Andrew D.%Mosholder%xref no email%1,       Elizabeth M.%Maloney%xref no email%1,       Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                M.%Chalumeau%null%1,                J.%Messika%null%1,                D.%Basille%null%1,                B.%Philippe%null%1,                J.-D.%Ricard%null%1,                C.%Andrejak%null%1,                V.%Jounieaux%null%1,                O.%Sanchez%null%1,                M.%Fartoukh%null%1,              G.%Voiriot%null%1,              M.%Chalumeau%null%1,              J.%Messika%null%1,              D.%Basille%null%1,              B.%Philippe%null%1,              J.-D.%Ricard%null%1,              C.%Andrejak%null%1,              V.%Jounieaux%null%1,              O.%Sanchez%null%1,              M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,     Nathalie%Plouvier%null%1,     Charlotte%Trouve%null%1,     Pierre%Duhaut%null%1,     Claire%Andrejak%null%1,     Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,       Reimar Wernich%Thomsen%xref no email%1,       Morten%Madsen%xref no email%1,       Pierre%Duhaut%xref no email%1,       Claire%Andrejak%xref no email%1,       Vincent%Jounieaux%xref no email%1,       Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -839,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -868,7 +892,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -897,7 +921,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -926,7 +950,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -955,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -984,7 +1008,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1013,7 +1037,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1042,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="152">
   <si>
     <t>Doi</t>
   </si>
@@ -530,6 +530,30 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,       Reimar Wernich%Thomsen%xref no email%1,       Morten%Madsen%xref no email%1,       Pierre%Duhaut%xref no email%1,       Claire%Andrejak%xref no email%1,       Vincent%Jounieaux%xref no email%1,       Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                Joanna L%Sharman%NULL%2,                Joanna L%Sharman%NULL%0,                Elena%Faccenda%NULL%1,                Chris%Southan%NULL%1,                Adam J%Pawson%NULL%1,                Sam%Ireland%NULL%1,                Alasdair J G%Gray%NULL%1,                Liam%Bruce%NULL%1,                Stephen P H%Alexander%NULL%1,                Stephen%Anderton%NULL%1,                Clare%Bryant%NULL%1,                Anthony P%Davenport%NULL%1,                Christian%Doerig%NULL%1,                Doriano%Fabbro%NULL%1,                Francesca%Levi-Schaffer%NULL%1,                Michael%Spedding%NULL%1,                Jamie A%Davies%jamie.davies@ed.ac.uk%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                 Sotirios G.%Zarogiannis%null%1,                 Konstantinos I.%Gourgoulianis%null%1,               Ourania S.%Kotsiou%null%1,               Sotirios G.%Zarogiannis%null%1,               Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                 Benjamin%Sztrymf%null%1,                 Fabrice%Bertrand%null%1,                 Typhaine%Billard-Pomares%null%1,                 Guilene%Barnaud%null%1,                 Catherine%Branger%null%1,                 Didier%Dreyfuss%null%1,                 Jean-Damien%Ricard%null%1,               Jonathan%Messika%null%1,               Benjamin%Sztrymf%null%1,               Fabrice%Bertrand%null%1,               Typhaine%Billard-Pomares%null%1,               Guilene%Barnaud%null%1,               Catherine%Branger%null%1,               Didier%Dreyfuss%null%1,               Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                Ana%Moragas%amoragasm@meditex.es%1,                Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                Rosa%Morros%rmorros@idiapjgol.org%1,                Helena%Pera%hpera@idiapjgol.org%1,                Josep M%Cots%23465jcy@comb.cat%1,                Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                Marc%Miravitlles%marcm@separ.es%1,                Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,        Frances L.%Vaughn%xref no email%1,        Andrew D.%Mosholder%xref no email%1,        Elizabeth M.%Maloney%xref no email%1,        Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                 M.%Chalumeau%null%1,                 J.%Messika%null%1,                 D.%Basille%null%1,                 B.%Philippe%null%1,                 J.-D.%Ricard%null%1,                 C.%Andrejak%null%1,                 V.%Jounieaux%null%1,                 O.%Sanchez%null%1,                 M.%Fartoukh%null%1,               G.%Voiriot%null%1,               M.%Chalumeau%null%1,               J.%Messika%null%1,               D.%Basille%null%1,               B.%Philippe%null%1,               J.-D.%Ricard%null%1,               C.%Andrejak%null%1,               V.%Jounieaux%null%1,               O.%Sanchez%null%1,               M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,      Nathalie%Plouvier%null%1,      Charlotte%Trouve%null%1,      Pierre%Duhaut%null%1,      Claire%Andrejak%null%1,      Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,        Reimar Wernich%Thomsen%xref no email%1,        Morten%Madsen%xref no email%1,        Pierre%Duhaut%xref no email%1,        Claire%Andrejak%xref no email%1,        Vincent%Jounieaux%xref no email%1,        Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -863,7 +887,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -892,7 +916,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -921,7 +945,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -950,7 +974,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -979,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1008,7 +1032,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1037,7 +1061,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1066,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="168">
   <si>
     <t>Doi</t>
   </si>
@@ -554,6 +554,54 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,        Reimar Wernich%Thomsen%xref no email%1,        Morten%Madsen%xref no email%1,        Pierre%Duhaut%xref no email%1,        Claire%Andrejak%xref no email%1,        Vincent%Jounieaux%xref no email%1,        Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                 Joanna L%Sharman%NULL%2,                 Joanna L%Sharman%NULL%0,                 Elena%Faccenda%NULL%1,                 Chris%Southan%NULL%1,                 Adam J%Pawson%NULL%1,                 Sam%Ireland%NULL%1,                 Alasdair J G%Gray%NULL%1,                 Liam%Bruce%NULL%1,                 Stephen P H%Alexander%NULL%1,                 Stephen%Anderton%NULL%1,                 Clare%Bryant%NULL%1,                 Anthony P%Davenport%NULL%1,                 Christian%Doerig%NULL%1,                 Doriano%Fabbro%NULL%1,                 Francesca%Levi-Schaffer%NULL%1,                 Michael%Spedding%NULL%1,                 Jamie A%Davies%jamie.davies@ed.ac.uk%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                  Sotirios G.%Zarogiannis%null%1,                  Konstantinos I.%Gourgoulianis%null%1,                Ourania S.%Kotsiou%null%1,                Sotirios G.%Zarogiannis%null%1,                Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                  Benjamin%Sztrymf%null%1,                  Fabrice%Bertrand%null%1,                  Typhaine%Billard-Pomares%null%1,                  Guilene%Barnaud%null%1,                  Catherine%Branger%null%1,                  Didier%Dreyfuss%null%1,                  Jean-Damien%Ricard%null%1,                Jonathan%Messika%null%1,                Benjamin%Sztrymf%null%1,                Fabrice%Bertrand%null%1,                Typhaine%Billard-Pomares%null%1,                Guilene%Barnaud%null%1,                Catherine%Branger%null%1,                Didier%Dreyfuss%null%1,                Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                 Ana%Moragas%amoragasm@meditex.es%1,                 Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                 Rosa%Morros%rmorros@idiapjgol.org%1,                 Helena%Pera%hpera@idiapjgol.org%1,                 Josep M%Cots%23465jcy@comb.cat%1,                 Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                 Marc%Miravitlles%marcm@separ.es%1,                 Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,         Frances L.%Vaughn%xref no email%1,         Andrew D.%Mosholder%xref no email%1,         Elizabeth M.%Maloney%xref no email%1,         Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                  M.%Chalumeau%null%1,                  J.%Messika%null%1,                  D.%Basille%null%1,                  B.%Philippe%null%1,                  J.-D.%Ricard%null%1,                  C.%Andrejak%null%1,                  V.%Jounieaux%null%1,                  O.%Sanchez%null%1,                  M.%Fartoukh%null%1,                G.%Voiriot%null%1,                M.%Chalumeau%null%1,                J.%Messika%null%1,                D.%Basille%null%1,                B.%Philippe%null%1,                J.-D.%Ricard%null%1,                C.%Andrejak%null%1,                V.%Jounieaux%null%1,                O.%Sanchez%null%1,                M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,       Nathalie%Plouvier%null%1,       Charlotte%Trouve%null%1,       Pierre%Duhaut%null%1,       Claire%Andrejak%null%1,       Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,         Reimar Wernich%Thomsen%xref no email%1,         Morten%Madsen%xref no email%1,         Pierre%Duhaut%xref no email%1,         Claire%Andrejak%xref no email%1,         Vincent%Jounieaux%xref no email%1,         Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                  Joanna L%Sharman%NULL%2,                  Joanna L%Sharman%NULL%0,                  Elena%Faccenda%NULL%1,                  Chris%Southan%NULL%1,                  Adam J%Pawson%NULL%1,                  Sam%Ireland%NULL%1,                  Alasdair J G%Gray%NULL%1,                  Liam%Bruce%NULL%1,                  Stephen P H%Alexander%NULL%1,                  Stephen%Anderton%NULL%1,                  Clare%Bryant%NULL%1,                  Anthony P%Davenport%NULL%1,                  Christian%Doerig%NULL%1,                  Doriano%Fabbro%NULL%1,                  Francesca%Levi-Schaffer%NULL%1,                  Michael%Spedding%NULL%1,                  Jamie A%Davies%jamie.davies@ed.ac.uk%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                   Sotirios G.%Zarogiannis%null%1,                   Konstantinos I.%Gourgoulianis%null%1,                 Ourania S.%Kotsiou%null%1,                 Sotirios G.%Zarogiannis%null%1,                 Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                   Benjamin%Sztrymf%null%1,                   Fabrice%Bertrand%null%1,                   Typhaine%Billard-Pomares%null%1,                   Guilene%Barnaud%null%1,                   Catherine%Branger%null%1,                   Didier%Dreyfuss%null%1,                   Jean-Damien%Ricard%null%1,                 Jonathan%Messika%null%1,                 Benjamin%Sztrymf%null%1,                 Fabrice%Bertrand%null%1,                 Typhaine%Billard-Pomares%null%1,                 Guilene%Barnaud%null%1,                 Catherine%Branger%null%1,                 Didier%Dreyfuss%null%1,                 Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                  Ana%Moragas%amoragasm@meditex.es%1,                  Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                  Rosa%Morros%rmorros@idiapjgol.org%1,                  Helena%Pera%hpera@idiapjgol.org%1,                  Josep M%Cots%23465jcy@comb.cat%1,                  Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                  Marc%Miravitlles%marcm@separ.es%1,                  Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,          Frances L.%Vaughn%xref no email%1,          Andrew D.%Mosholder%xref no email%1,          Elizabeth M.%Maloney%xref no email%1,          Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                   M.%Chalumeau%null%1,                   J.%Messika%null%1,                   D.%Basille%null%1,                   B.%Philippe%null%1,                   J.-D.%Ricard%null%1,                   C.%Andrejak%null%1,                   V.%Jounieaux%null%1,                   O.%Sanchez%null%1,                   M.%Fartoukh%null%1,                 G.%Voiriot%null%1,                 M.%Chalumeau%null%1,                 J.%Messika%null%1,                 D.%Basille%null%1,                 B.%Philippe%null%1,                 J.-D.%Ricard%null%1,                 C.%Andrejak%null%1,                 V.%Jounieaux%null%1,                 O.%Sanchez%null%1,                 M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,        Nathalie%Plouvier%null%1,        Charlotte%Trouve%null%1,        Pierre%Duhaut%null%1,        Claire%Andrejak%null%1,        Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,          Reimar Wernich%Thomsen%xref no email%1,          Morten%Madsen%xref no email%1,          Pierre%Duhaut%xref no email%1,          Claire%Andrejak%xref no email%1,          Vincent%Jounieaux%xref no email%1,          Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -887,7 +935,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -916,7 +964,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -945,7 +993,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -974,7 +1022,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1003,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1032,7 +1080,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1061,7 +1109,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1090,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="176">
   <si>
     <t>Doi</t>
   </si>
@@ -602,6 +602,30 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,          Reimar Wernich%Thomsen%xref no email%1,          Morten%Madsen%xref no email%1,          Pierre%Duhaut%xref no email%1,          Claire%Andrejak%xref no email%1,          Vincent%Jounieaux%xref no email%1,          Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                   Joanna L%Sharman%NULL%2,                   Joanna L%Sharman%NULL%0,                   Elena%Faccenda%NULL%1,                   Chris%Southan%NULL%1,                   Adam J%Pawson%NULL%1,                   Sam%Ireland%NULL%1,                   Alasdair J G%Gray%NULL%1,                   Liam%Bruce%NULL%1,                   Stephen P H%Alexander%NULL%1,                   Stephen%Anderton%NULL%1,                   Clare%Bryant%NULL%1,                   Anthony P%Davenport%NULL%1,                   Christian%Doerig%NULL%1,                   Doriano%Fabbro%NULL%1,                   Francesca%Levi-Schaffer%NULL%1,                   Michael%Spedding%NULL%1,                   Jamie A%Davies%jamie.davies@ed.ac.uk%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                    Sotirios G.%Zarogiannis%null%1,                    Konstantinos I.%Gourgoulianis%null%1,                  Ourania S.%Kotsiou%null%1,                  Sotirios G.%Zarogiannis%null%1,                  Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                    Benjamin%Sztrymf%null%1,                    Fabrice%Bertrand%null%1,                    Typhaine%Billard-Pomares%null%1,                    Guilene%Barnaud%null%1,                    Catherine%Branger%null%1,                    Didier%Dreyfuss%null%1,                    Jean-Damien%Ricard%null%1,                  Jonathan%Messika%null%1,                  Benjamin%Sztrymf%null%1,                  Fabrice%Bertrand%null%1,                  Typhaine%Billard-Pomares%null%1,                  Guilene%Barnaud%null%1,                  Catherine%Branger%null%1,                  Didier%Dreyfuss%null%1,                  Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                   Ana%Moragas%amoragasm@meditex.es%1,                   Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                   Rosa%Morros%rmorros@idiapjgol.org%1,                   Helena%Pera%hpera@idiapjgol.org%1,                   Josep M%Cots%23465jcy@comb.cat%1,                   Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                   Marc%Miravitlles%marcm@separ.es%1,                   Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,           Frances L.%Vaughn%xref no email%1,           Andrew D.%Mosholder%xref no email%1,           Elizabeth M.%Maloney%xref no email%1,           Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                    M.%Chalumeau%null%1,                    J.%Messika%null%1,                    D.%Basille%null%1,                    B.%Philippe%null%1,                    J.-D.%Ricard%null%1,                    C.%Andrejak%null%1,                    V.%Jounieaux%null%1,                    O.%Sanchez%null%1,                    M.%Fartoukh%null%1,                  G.%Voiriot%null%1,                  M.%Chalumeau%null%1,                  J.%Messika%null%1,                  D.%Basille%null%1,                  B.%Philippe%null%1,                  J.-D.%Ricard%null%1,                  C.%Andrejak%null%1,                  V.%Jounieaux%null%1,                  O.%Sanchez%null%1,                  M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,         Nathalie%Plouvier%null%1,         Charlotte%Trouve%null%1,         Pierre%Duhaut%null%1,         Claire%Andrejak%null%1,         Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,           Reimar Wernich%Thomsen%xref no email%1,           Morten%Madsen%xref no email%1,           Pierre%Duhaut%xref no email%1,           Claire%Andrejak%xref no email%1,           Vincent%Jounieaux%xref no email%1,           Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -935,7 +959,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -964,7 +988,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -993,7 +1017,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1022,7 +1046,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1051,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1080,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1109,7 +1133,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1138,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="187">
   <si>
     <t>Doi</t>
   </si>
@@ -626,6 +626,39 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,           Reimar Wernich%Thomsen%xref no email%1,           Morten%Madsen%xref no email%1,           Pierre%Duhaut%xref no email%1,           Claire%Andrejak%xref no email%1,           Vincent%Jounieaux%xref no email%1,           Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                    Joanna L%Sharman%NULL%2,                    Joanna L%Sharman%NULL%0,                    Elena%Faccenda%NULL%1,                    Chris%Southan%NULL%1,                    Adam J%Pawson%NULL%1,                    Sam%Ireland%NULL%1,                    Alasdair J G%Gray%NULL%1,                    Liam%Bruce%NULL%1,                    Stephen P H%Alexander%NULL%1,                    Stephen%Anderton%NULL%1,                    Clare%Bryant%NULL%1,                    Anthony P%Davenport%NULL%1,                    Christian%Doerig%NULL%1,                    Doriano%Fabbro%NULL%1,                    Francesca%Levi-Schaffer%NULL%1,                    Michael%Spedding%NULL%1,                    Jamie A%Davies%jamie.davies@ed.ac.uk%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                     Sotirios G.%Zarogiannis%null%1,                     Konstantinos I.%Gourgoulianis%null%1,                   Ourania S.%Kotsiou%null%1,                   Sotirios G.%Zarogiannis%null%1,                   Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                     Benjamin%Sztrymf%null%1,                     Fabrice%Bertrand%null%1,                     Typhaine%Billard-Pomares%null%1,                     Guilene%Barnaud%null%1,                     Catherine%Branger%null%1,                     Didier%Dreyfuss%null%1,                     Jean-Damien%Ricard%null%1,                   Jonathan%Messika%null%1,                   Benjamin%Sztrymf%null%1,                   Fabrice%Bertrand%null%1,                   Typhaine%Billard-Pomares%null%1,                   Guilene%Barnaud%null%1,                   Catherine%Branger%null%1,                   Didier%Dreyfuss%null%1,                   Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                    Ana%Moragas%amoragasm@meditex.es%1,                    Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                    Rosa%Morros%rmorros@idiapjgol.org%1,                    Helena%Pera%hpera@idiapjgol.org%1,                    Josep M%Cots%23465jcy@comb.cat%1,                    Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                    Marc%Miravitlles%marcm@separ.es%1,                    Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,            Frances L.%Vaughn%xref no email%1,            Andrew D.%Mosholder%xref no email%1,            Elizabeth M.%Maloney%xref no email%1,            Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                     M.%Chalumeau%null%1,                     J.%Messika%null%1,                     D.%Basille%null%1,                     B.%Philippe%null%1,                     J.-D.%Ricard%null%1,                     C.%Andrejak%null%1,                     V.%Jounieaux%null%1,                     O.%Sanchez%null%1,                     M.%Fartoukh%null%1,                   G.%Voiriot%null%1,                   M.%Chalumeau%null%1,                   J.%Messika%null%1,                   D.%Basille%null%1,                   B.%Philippe%null%1,                   J.-D.%Ricard%null%1,                   C.%Andrejak%null%1,                   V.%Jounieaux%null%1,                   O.%Sanchez%null%1,                   M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,          Nathalie%Plouvier%null%1,          Charlotte%Trouve%null%1,          Pierre%Duhaut%null%1,          Claire%Andrejak%null%1,          Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,            Reimar Wernich%Thomsen%xref no email%1,            Morten%Madsen%xref no email%1,            Pierre%Duhaut%xref no email%1,            Claire%Andrejak%xref no email%1,            Vincent%Jounieaux%xref no email%1,            Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -959,7 +992,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -971,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -988,7 +1021,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1000,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1017,7 +1050,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1029,7 +1062,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1046,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1058,7 +1091,7 @@
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1075,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1087,7 +1120,7 @@
         <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1104,7 +1137,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1116,7 +1149,7 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1133,7 +1166,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1145,7 +1178,7 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1162,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1174,7 +1207,7 @@
         <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="195">
   <si>
     <t>Doi</t>
   </si>
@@ -659,6 +659,30 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,            Reimar Wernich%Thomsen%xref no email%1,            Morten%Madsen%xref no email%1,            Pierre%Duhaut%xref no email%1,            Claire%Andrejak%xref no email%1,            Vincent%Jounieaux%xref no email%1,            Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                     Joanna L%Sharman%NULL%2,                     Joanna L%Sharman%NULL%0,                     Elena%Faccenda%NULL%1,                     Chris%Southan%NULL%1,                     Adam J%Pawson%NULL%1,                     Sam%Ireland%NULL%1,                     Alasdair J G%Gray%NULL%1,                     Liam%Bruce%NULL%1,                     Stephen P H%Alexander%NULL%1,                     Stephen%Anderton%NULL%1,                     Clare%Bryant%NULL%1,                     Anthony P%Davenport%NULL%1,                     Christian%Doerig%NULL%1,                     Doriano%Fabbro%NULL%1,                     Francesca%Levi-Schaffer%NULL%1,                     Michael%Spedding%NULL%1,                     Jamie A%Davies%jamie.davies@ed.ac.uk%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                      Sotirios G.%Zarogiannis%null%1,                      Konstantinos I.%Gourgoulianis%null%1,                    Ourania S.%Kotsiou%null%1,                    Sotirios G.%Zarogiannis%null%1,                    Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                      Benjamin%Sztrymf%null%1,                      Fabrice%Bertrand%null%1,                      Typhaine%Billard-Pomares%null%1,                      Guilene%Barnaud%null%1,                      Catherine%Branger%null%1,                      Didier%Dreyfuss%null%1,                      Jean-Damien%Ricard%null%1,                    Jonathan%Messika%null%1,                    Benjamin%Sztrymf%null%1,                    Fabrice%Bertrand%null%1,                    Typhaine%Billard-Pomares%null%1,                    Guilene%Barnaud%null%1,                    Catherine%Branger%null%1,                    Didier%Dreyfuss%null%1,                    Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                     Ana%Moragas%amoragasm@meditex.es%1,                     Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                     Rosa%Morros%rmorros@idiapjgol.org%1,                     Helena%Pera%hpera@idiapjgol.org%1,                     Josep M%Cots%23465jcy@comb.cat%1,                     Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                     Marc%Miravitlles%marcm@separ.es%1,                     Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%1,             Frances L.%Vaughn%xref no email%1,             Andrew D.%Mosholder%xref no email%1,             Elizabeth M.%Maloney%xref no email%1,             Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                      M.%Chalumeau%null%1,                      J.%Messika%null%1,                      D.%Basille%null%1,                      B.%Philippe%null%1,                      J.-D.%Ricard%null%1,                      C.%Andrejak%null%1,                      V.%Jounieaux%null%1,                      O.%Sanchez%null%1,                      M.%Fartoukh%null%1,                    G.%Voiriot%null%1,                    M.%Chalumeau%null%1,                    J.%Messika%null%1,                    D.%Basille%null%1,                    B.%Philippe%null%1,                    J.-D.%Ricard%null%1,                    C.%Andrejak%null%1,                    V.%Jounieaux%null%1,                    O.%Sanchez%null%1,                    M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,           Nathalie%Plouvier%null%1,           Charlotte%Trouve%null%1,           Pierre%Duhaut%null%1,           Claire%Andrejak%null%1,           Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%1,             Reimar Wernich%Thomsen%xref no email%1,             Morten%Madsen%xref no email%1,             Pierre%Duhaut%xref no email%1,             Claire%Andrejak%xref no email%1,             Vincent%Jounieaux%xref no email%1,             Henrik Toft%S\u00f8rensen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1021,7 +1045,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1050,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1079,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1108,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1137,7 +1161,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1166,7 +1190,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1195,7 +1219,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="230">
   <si>
     <t>Doi</t>
   </si>
@@ -683,6 +683,111 @@
   </si>
   <si>
     <t>[Damien%Basille%xref no email%1,             Reimar Wernich%Thomsen%xref no email%1,             Morten%Madsen%xref no email%1,             Pierre%Duhaut%xref no email%1,             Claire%Andrejak%xref no email%1,             Vincent%Jounieaux%xref no email%1,             Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                      Joanna L%Sharman%NULL%2,                      Joanna L%Sharman%NULL%0,                      Elena%Faccenda%NULL%1,                      Chris%Southan%NULL%1,                      Adam J%Pawson%NULL%1,                      Sam%Ireland%NULL%1,                      Alasdair J G%Gray%NULL%1,                      Liam%Bruce%NULL%1,                      Stephen P H%Alexander%NULL%1,                      Stephen%Anderton%NULL%1,                      Clare%Bryant%NULL%1,                      Anthony P%Davenport%NULL%1,                      Christian%Doerig%NULL%1,                      Doriano%Fabbro%NULL%1,                      Francesca%Levi-Schaffer%NULL%1,                      Michael%Spedding%NULL%1,                      Jamie A%Davies%jamie.davies@ed.ac.uk%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                       Sotirios G.%Zarogiannis%null%1,                       Konstantinos I.%Gourgoulianis%null%1,                     Ourania S.%Kotsiou%null%1,                     Sotirios G.%Zarogiannis%null%1,                     Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                       Benjamin%Sztrymf%null%1,                       Fabrice%Bertrand%null%1,                       Typhaine%Billard-Pomares%null%1,                       Guilene%Barnaud%null%1,                       Catherine%Branger%null%1,                       Didier%Dreyfuss%null%1,                       Jean-Damien%Ricard%null%1,                     Jonathan%Messika%null%1,                     Benjamin%Sztrymf%null%1,                     Fabrice%Bertrand%null%1,                     Typhaine%Billard-Pomares%null%1,                     Guilene%Barnaud%null%1,                     Catherine%Branger%null%1,                     Didier%Dreyfuss%null%1,                     Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                      Ana%Moragas%amoragasm@meditex.es%1,                      Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                      Rosa%Morros%rmorros@idiapjgol.org%1,                      Helena%Pera%hpera@idiapjgol.org%1,                      Josep M%Cots%23465jcy@comb.cat%1,                      Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                      Marc%Miravitlles%marcm@separ.es%1,                      Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[Holly%Epperly%xref no email%0, Frances L.%Vaughn%xref no email%1, Andrew D.%Mosholder%xref no email%1, Elizabeth M.%Maloney%xref no email%1, Lewis%Rubinson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Editorial Committee of Japanese Journal of Infectious Diseases, National Institute of Infectious Dis</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                       M.%Chalumeau%null%1,                       J.%Messika%null%1,                       D.%Basille%null%1,                       B.%Philippe%null%1,                       J.-D.%Ricard%null%1,                       C.%Andrejak%null%1,                       V.%Jounieaux%null%1,                       O.%Sanchez%null%1,                       M.%Fartoukh%null%1,                     G.%Voiriot%null%1,                     M.%Chalumeau%null%1,                     J.%Messika%null%1,                     D.%Basille%null%1,                     B.%Philippe%null%1,                     J.-D.%Ricard%null%1,                     C.%Andrejak%null%1,                     V.%Jounieaux%null%1,                     O.%Sanchez%null%1,                     M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,            Nathalie%Plouvier%null%1,            Charlotte%Trouve%null%1,            Pierre%Duhaut%null%1,            Claire%Andrejak%null%1,            Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Damien%Basille%xref no email%0, Reimar Wernich%Thomsen%xref no email%1, Morten%Madsen%xref no email%1, Pierre%Duhaut%xref no email%1, Claire%Andrejak%xref no email%1, Vincent%Jounieaux%xref no email%1, Henrik Toft%S\u00f8rensen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Thoracic Society</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                       Joanna L%Sharman%NULL%2,                       Joanna L%Sharman%NULL%0,                       Elena%Faccenda%NULL%1,                       Chris%Southan%NULL%1,                       Adam J%Pawson%NULL%1,                       Sam%Ireland%NULL%1,                       Alasdair J G%Gray%NULL%1,                       Liam%Bruce%NULL%1,                       Stephen P H%Alexander%NULL%1,                       Stephen%Anderton%NULL%1,                       Clare%Bryant%NULL%1,                       Anthony P%Davenport%NULL%1,                       Christian%Doerig%NULL%1,                       Doriano%Fabbro%NULL%1,                       Francesca%Levi-Schaffer%NULL%1,                       Michael%Spedding%NULL%1,                       Jamie A%Davies%jamie.davies@ed.ac.uk%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                        Sotirios G.%Zarogiannis%null%1,                        Konstantinos I.%Gourgoulianis%null%1,                      Ourania S.%Kotsiou%null%1,                      Sotirios G.%Zarogiannis%null%1,                      Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                        Benjamin%Sztrymf%null%1,                        Fabrice%Bertrand%null%1,                        Typhaine%Billard-Pomares%null%1,                        Guilene%Barnaud%null%1,                        Catherine%Branger%null%1,                        Didier%Dreyfuss%null%1,                        Jean-Damien%Ricard%null%1,                      Jonathan%Messika%null%1,                      Benjamin%Sztrymf%null%1,                      Fabrice%Bertrand%null%1,                      Typhaine%Billard-Pomares%null%1,                      Guilene%Barnaud%null%1,                      Catherine%Branger%null%1,                      Didier%Dreyfuss%null%1,                      Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                       Ana%Moragas%amoragasm@meditex.es%1,                       Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                       Rosa%Morros%rmorros@idiapjgol.org%1,                       Helena%Pera%hpera@idiapjgol.org%1,                       Josep M%Cots%23465jcy@comb.cat%1,                       Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                       Marc%Miravitlles%marcm@separ.es%1,                       Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                        M.%Chalumeau%null%1,                        J.%Messika%null%1,                        D.%Basille%null%1,                        B.%Philippe%null%1,                        J.-D.%Ricard%null%1,                        C.%Andrejak%null%1,                        V.%Jounieaux%null%1,                        O.%Sanchez%null%1,                        M.%Fartoukh%null%1,                      G.%Voiriot%null%1,                      M.%Chalumeau%null%1,                      J.%Messika%null%1,                      D.%Basille%null%1,                      B.%Philippe%null%1,                      J.-D.%Ricard%null%1,                      C.%Andrejak%null%1,                      V.%Jounieaux%null%1,                      O.%Sanchez%null%1,                      M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,             Nathalie%Plouvier%null%1,             Charlotte%Trouve%null%1,             Pierre%Duhaut%null%1,             Claire%Andrejak%null%1,             Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                        Joanna L%Sharman%NULL%2,                        Joanna L%Sharman%NULL%0,                        Elena%Faccenda%NULL%1,                        Chris%Southan%NULL%1,                        Adam J%Pawson%NULL%1,                        Sam%Ireland%NULL%1,                        Alasdair J G%Gray%NULL%1,                        Liam%Bruce%NULL%1,                        Stephen P H%Alexander%NULL%1,                        Stephen%Anderton%NULL%1,                        Clare%Bryant%NULL%1,                        Anthony P%Davenport%NULL%1,                        Christian%Doerig%NULL%1,                        Doriano%Fabbro%NULL%1,                        Francesca%Levi-Schaffer%NULL%1,                        Michael%Spedding%NULL%1,                        Jamie A%Davies%jamie.davies@ed.ac.uk%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                         Sotirios G.%Zarogiannis%null%1,                         Konstantinos I.%Gourgoulianis%null%1,                       Ourania S.%Kotsiou%null%1,                       Sotirios G.%Zarogiannis%null%1,                       Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                         Benjamin%Sztrymf%null%1,                         Fabrice%Bertrand%null%1,                         Typhaine%Billard-Pomares%null%1,                         Guilene%Barnaud%null%1,                         Catherine%Branger%null%1,                         Didier%Dreyfuss%null%1,                         Jean-Damien%Ricard%null%1,                       Jonathan%Messika%null%1,                       Benjamin%Sztrymf%null%1,                       Fabrice%Bertrand%null%1,                       Typhaine%Billard-Pomares%null%1,                       Guilene%Barnaud%null%1,                       Catherine%Branger%null%1,                       Didier%Dreyfuss%null%1,                       Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                        Ana%Moragas%amoragasm@meditex.es%1,                        Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                        Rosa%Morros%rmorros@idiapjgol.org%1,                        Helena%Pera%hpera@idiapjgol.org%1,                        Josep M%Cots%23465jcy@comb.cat%1,                        Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                        Marc%Miravitlles%marcm@separ.es%1,                        Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                         M.%Chalumeau%null%1,                         J.%Messika%null%1,                         D.%Basille%null%1,                         B.%Philippe%null%1,                         J.-D.%Ricard%null%1,                         C.%Andrejak%null%1,                         V.%Jounieaux%null%1,                         O.%Sanchez%null%1,                         M.%Fartoukh%null%1,                       G.%Voiriot%null%1,                       M.%Chalumeau%null%1,                       J.%Messika%null%1,                       D.%Basille%null%1,                       B.%Philippe%null%1,                       J.-D.%Ricard%null%1,                       C.%Andrejak%null%1,                       V.%Jounieaux%null%1,                       O.%Sanchez%null%1,                       M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,              Nathalie%Plouvier%null%1,              Charlotte%Trouve%null%1,              Pierre%Duhaut%null%1,              Claire%Andrejak%null%1,              Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                         Joanna L%Sharman%NULL%2,                         Joanna L%Sharman%NULL%0,                         Elena%Faccenda%NULL%1,                         Chris%Southan%NULL%1,                         Adam J%Pawson%NULL%1,                         Sam%Ireland%NULL%1,                         Alasdair J G%Gray%NULL%1,                         Liam%Bruce%NULL%1,                         Stephen P H%Alexander%NULL%1,                         Stephen%Anderton%NULL%1,                         Clare%Bryant%NULL%1,                         Anthony P%Davenport%NULL%1,                         Christian%Doerig%NULL%1,                         Doriano%Fabbro%NULL%1,                         Francesca%Levi-Schaffer%NULL%1,                         Michael%Spedding%NULL%1,                         Jamie A%Davies%jamie.davies@ed.ac.uk%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                          Sotirios G.%Zarogiannis%null%1,                          Konstantinos I.%Gourgoulianis%null%1,                        Ourania S.%Kotsiou%null%1,                        Sotirios G.%Zarogiannis%null%1,                        Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                          Benjamin%Sztrymf%null%1,                          Fabrice%Bertrand%null%1,                          Typhaine%Billard-Pomares%null%1,                          Guilene%Barnaud%null%1,                          Catherine%Branger%null%1,                          Didier%Dreyfuss%null%1,                          Jean-Damien%Ricard%null%1,                        Jonathan%Messika%null%1,                        Benjamin%Sztrymf%null%1,                        Fabrice%Bertrand%null%1,                        Typhaine%Billard-Pomares%null%1,                        Guilene%Barnaud%null%1,                        Catherine%Branger%null%1,                        Didier%Dreyfuss%null%1,                        Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                         Ana%Moragas%amoragasm@meditex.es%1,                         Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                         Rosa%Morros%rmorros@idiapjgol.org%1,                         Helena%Pera%hpera@idiapjgol.org%1,                         Josep M%Cots%23465jcy@comb.cat%1,                         Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                         Marc%Miravitlles%marcm@separ.es%1,                         Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                          M.%Chalumeau%null%1,                          J.%Messika%null%1,                          D.%Basille%null%1,                          B.%Philippe%null%1,                          J.-D.%Ricard%null%1,                          C.%Andrejak%null%1,                          V.%Jounieaux%null%1,                          O.%Sanchez%null%1,                          M.%Fartoukh%null%1,                        G.%Voiriot%null%1,                        M.%Chalumeau%null%1,                        J.%Messika%null%1,                        D.%Basille%null%1,                        B.%Philippe%null%1,                        J.-D.%Ricard%null%1,                        C.%Andrejak%null%1,                        V.%Jounieaux%null%1,                        O.%Sanchez%null%1,                        M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,               Nathalie%Plouvier%null%1,               Charlotte%Trouve%null%1,               Pierre%Duhaut%null%1,               Claire%Andrejak%null%1,               Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                          Joanna L%Sharman%NULL%2,                          Joanna L%Sharman%NULL%0,                          Elena%Faccenda%NULL%1,                          Chris%Southan%NULL%1,                          Adam J%Pawson%NULL%1,                          Sam%Ireland%NULL%1,                          Alasdair J G%Gray%NULL%1,                          Liam%Bruce%NULL%1,                          Stephen P H%Alexander%NULL%1,                          Stephen%Anderton%NULL%1,                          Clare%Bryant%NULL%1,                          Anthony P%Davenport%NULL%1,                          Christian%Doerig%NULL%1,                          Doriano%Fabbro%NULL%1,                          Francesca%Levi-Schaffer%NULL%1,                          Michael%Spedding%NULL%1,                          Jamie A%Davies%jamie.davies@ed.ac.uk%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                           Sotirios G.%Zarogiannis%null%1,                           Konstantinos I.%Gourgoulianis%null%1,                         Ourania S.%Kotsiou%null%1,                         Sotirios G.%Zarogiannis%null%1,                         Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                           Benjamin%Sztrymf%null%1,                           Fabrice%Bertrand%null%1,                           Typhaine%Billard-Pomares%null%1,                           Guilene%Barnaud%null%1,                           Catherine%Branger%null%1,                           Didier%Dreyfuss%null%1,                           Jean-Damien%Ricard%null%1,                         Jonathan%Messika%null%1,                         Benjamin%Sztrymf%null%1,                         Fabrice%Bertrand%null%1,                         Typhaine%Billard-Pomares%null%1,                         Guilene%Barnaud%null%1,                         Catherine%Branger%null%1,                         Didier%Dreyfuss%null%1,                         Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                          Ana%Moragas%amoragasm@meditex.es%1,                          Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                          Rosa%Morros%rmorros@idiapjgol.org%1,                          Helena%Pera%hpera@idiapjgol.org%1,                          Josep M%Cots%23465jcy@comb.cat%1,                          Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                          Marc%Miravitlles%marcm@separ.es%1,                          Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                           M.%Chalumeau%null%1,                           J.%Messika%null%1,                           D.%Basille%null%1,                           B.%Philippe%null%1,                           J.-D.%Ricard%null%1,                           C.%Andrejak%null%1,                           V.%Jounieaux%null%1,                           O.%Sanchez%null%1,                           M.%Fartoukh%null%1,                         G.%Voiriot%null%1,                         M.%Chalumeau%null%1,                         J.%Messika%null%1,                         D.%Basille%null%1,                         B.%Philippe%null%1,                         J.-D.%Ricard%null%1,                         C.%Andrejak%null%1,                         V.%Jounieaux%null%1,                         O.%Sanchez%null%1,                         M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,                Nathalie%Plouvier%null%1,                Charlotte%Trouve%null%1,                Pierre%Duhaut%null%1,                Claire%Andrejak%null%1,                Vincent%Jounieaux%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1001,6 +1106,9 @@
       <c r="I1" t="s">
         <v>48</v>
       </c>
+      <c r="J1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1016,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1029,6 +1137,9 @@
       </c>
       <c r="I2" t="s">
         <v>177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1045,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1058,6 +1169,9 @@
       </c>
       <c r="I3" t="s">
         <v>179</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1074,7 +1188,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1087,6 +1201,9 @@
       </c>
       <c r="I4" t="s">
         <v>179</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1103,7 +1220,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1116,6 +1233,9 @@
       </c>
       <c r="I5" t="s">
         <v>182</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1132,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1144,7 +1264,10 @@
         <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1161,7 +1284,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1174,6 +1297,9 @@
       </c>
       <c r="I7" t="s">
         <v>179</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1190,7 +1316,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1203,6 +1329,9 @@
       </c>
       <c r="I8" t="s">
         <v>179</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1219,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1231,7 +1360,10 @@
         <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/41.xlsx
+++ b/Covid_19_Dataset_and_References/References/41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="242">
   <si>
     <t>Doi</t>
   </si>
@@ -788,6 +788,42 @@
   </si>
   <si>
     <t>[ Damien%Basille%null%1,                Nathalie%Plouvier%null%1,                Charlotte%Trouve%null%1,                Pierre%Duhaut%null%1,                Claire%Andrejak%null%1,                Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                           Joanna L%Sharman%NULL%2,                           Joanna L%Sharman%NULL%0,                           Elena%Faccenda%NULL%1,                           Chris%Southan%NULL%1,                           Adam J%Pawson%NULL%1,                           Sam%Ireland%NULL%1,                           Alasdair J G%Gray%NULL%1,                           Liam%Bruce%NULL%1,                           Stephen P H%Alexander%NULL%1,                           Stephen%Anderton%NULL%1,                           Clare%Bryant%NULL%1,                           Anthony P%Davenport%NULL%1,                           Christian%Doerig%NULL%1,                           Doriano%Fabbro%NULL%1,                           Francesca%Levi-Schaffer%NULL%1,                           Michael%Spedding%NULL%1,                           Jamie A%Davies%jamie.davies@ed.ac.uk%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                            Sotirios G.%Zarogiannis%null%1,                            Konstantinos I.%Gourgoulianis%null%1,                          Ourania S.%Kotsiou%null%1,                          Sotirios G.%Zarogiannis%null%1,                          Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                            Benjamin%Sztrymf%null%1,                            Fabrice%Bertrand%null%1,                            Typhaine%Billard-Pomares%null%1,                            Guilene%Barnaud%null%1,                            Catherine%Branger%null%1,                            Didier%Dreyfuss%null%1,                            Jean-Damien%Ricard%null%1,                          Jonathan%Messika%null%1,                          Benjamin%Sztrymf%null%1,                          Fabrice%Bertrand%null%1,                          Typhaine%Billard-Pomares%null%1,                          Guilene%Barnaud%null%1,                          Catherine%Branger%null%1,                          Didier%Dreyfuss%null%1,                          Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                           Ana%Moragas%amoragasm@meditex.es%1,                           Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                           Rosa%Morros%rmorros@idiapjgol.org%1,                           Helena%Pera%hpera@idiapjgol.org%1,                           Josep M%Cots%23465jcy@comb.cat%1,                           Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                           Marc%Miravitlles%marcm@separ.es%1,                           Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                            M.%Chalumeau%null%1,                            J.%Messika%null%1,                            D.%Basille%null%1,                            B.%Philippe%null%1,                            J.-D.%Ricard%null%1,                            C.%Andrejak%null%1,                            V.%Jounieaux%null%1,                            O.%Sanchez%null%1,                            M.%Fartoukh%null%1,                          G.%Voiriot%null%1,                          M.%Chalumeau%null%1,                          J.%Messika%null%1,                          D.%Basille%null%1,                          B.%Philippe%null%1,                          J.-D.%Ricard%null%1,                          C.%Andrejak%null%1,                          V.%Jounieaux%null%1,                          O.%Sanchez%null%1,                          M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,                 Nathalie%Plouvier%null%1,                 Charlotte%Trouve%null%1,                 Pierre%Duhaut%null%1,                 Claire%Andrejak%null%1,                 Vincent%Jounieaux%null%1]</t>
+  </si>
+  <si>
+    <t>[Simon D%Harding%NULL%1,                            Joanna L%Sharman%NULL%2,                            Joanna L%Sharman%NULL%0,                            Elena%Faccenda%NULL%1,                            Chris%Southan%NULL%1,                            Adam J%Pawson%NULL%1,                            Sam%Ireland%NULL%1,                            Alasdair J G%Gray%NULL%1,                            Liam%Bruce%NULL%1,                            Stephen P H%Alexander%NULL%1,                            Stephen%Anderton%NULL%1,                            Clare%Bryant%NULL%1,                            Anthony P%Davenport%NULL%1,                            Christian%Doerig%NULL%1,                            Doriano%Fabbro%NULL%1,                            Francesca%Levi-Schaffer%NULL%1,                            Michael%Spedding%NULL%1,                            Jamie A%Davies%jamie.davies@ed.ac.uk%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Ourania S.%Kotsiou%null%1,                             Sotirios G.%Zarogiannis%null%1,                             Konstantinos I.%Gourgoulianis%null%1,                           Ourania S.%Kotsiou%null%1,                           Sotirios G.%Zarogiannis%null%1,                           Konstantinos I.%Gourgoulianis%null%1]</t>
+  </si>
+  <si>
+    <t>[ Jonathan%Messika%null%1,                             Benjamin%Sztrymf%null%1,                             Fabrice%Bertrand%null%1,                             Typhaine%Billard-Pomares%null%1,                             Guilene%Barnaud%null%1,                             Catherine%Branger%null%1,                             Didier%Dreyfuss%null%1,                             Jean-Damien%Ricard%null%1,                           Jonathan%Messika%null%1,                           Benjamin%Sztrymf%null%1,                           Fabrice%Bertrand%null%1,                           Typhaine%Billard-Pomares%null%1,                           Guilene%Barnaud%null%1,                           Catherine%Branger%null%1,                           Didier%Dreyfuss%null%1,                           Jean-Damien%Ricard%null%1]</t>
+  </si>
+  <si>
+    <t>[Carl%Llor%carles.llor@urv.cat%1,                            Ana%Moragas%amoragasm@meditex.es%1,                            Carolina%Bayona%cbayona.tarte.ics@gencat.cat%1,                            Rosa%Morros%rmorros@idiapjgol.org%1,                            Helena%Pera%hpera@idiapjgol.org%1,                            Josep M%Cots%23465jcy@comb.cat%1,                            Yvonne%Fernández%yfernandez.tarte.ics@gencat.cat%1,                            Marc%Miravitlles%marcm@separ.es%1,                            Albert%Boada%aboadav.bcn.ics@gencat.cat%1]</t>
+  </si>
+  <si>
+    <t>[ G.%Voiriot%null%1,                             M.%Chalumeau%null%1,                             J.%Messika%null%1,                             D.%Basille%null%1,                             B.%Philippe%null%1,                             J.-D.%Ricard%null%1,                             C.%Andrejak%null%1,                             V.%Jounieaux%null%1,                             O.%Sanchez%null%1,                             M.%Fartoukh%null%1,                           G.%Voiriot%null%1,                           M.%Chalumeau%null%1,                           J.%Messika%null%1,                           D.%Basille%null%1,                           B.%Philippe%null%1,                           J.-D.%Ricard%null%1,                           C.%Andrejak%null%1,                           V.%Jounieaux%null%1,                           O.%Sanchez%null%1,                           M.%Fartoukh%null%1]</t>
+  </si>
+  <si>
+    <t>[ Damien%Basille%null%1,                  Nathalie%Plouvier%null%1,                  Charlotte%Trouve%null%1,                  Pierre%Duhaut%null%1,                  Claire%Andrejak%null%1,                  Vincent%Jounieaux%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1156,7 +1192,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1188,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1220,7 +1256,7 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1252,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1284,7 +1320,7 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1316,7 +1352,7 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1348,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
